--- a/medicine/Psychotrope/Brauerei_Felsenau/Brauerei_Felsenau.xlsx
+++ b/medicine/Psychotrope/Brauerei_Felsenau/Brauerei_Felsenau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brauerei Felsenau est une brasserie familiale bernoise fondée en 1881.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brauerei Felsenau AG a été fondée en 1881 par Johann Gustav Hemmann. Aujourd'hui, la cinquième génération de ses descendants gère la brasserie. Johann Gustav Hemmann avait auparavant dirigé une brasserie dès 1860 à Würenlingen en Argovie et à Zollikofen près de Berne. En 1881 la bière brassée se nommait "Hemme-Bier".
-En 1955 la société en nom collectif est transformée en société anonyme. En 1993 la direction est prise par Stefan Simon et Martin Thierstein[1].
+En 1955 la société en nom collectif est transformée en société anonyme. En 1993 la direction est prise par Stefan Simon et Martin Thierstein.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Assortiment</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bärner Müntschi, hell, trüb, Stammwürze 11.3 %, 4.8 Vol.-%
 Bärner Weizenbier, Stammwürze 12.8 %, 5.4 Vol.-%
